--- a/po_analysis_by_asin/B0CTNXBRJV_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTNXBRJV_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>108</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>90</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>90</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>198</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>204</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>60</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>54</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>84</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>96</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>444</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>36</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>60</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>48</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>132</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>48</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>84</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>300</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>36</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>120</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>12</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>312</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>120</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>408</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>480</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>252</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>300</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>168</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>396</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>96</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>486</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>402</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>636</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>312</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>456</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>12</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>312</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>1260</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>468</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>492</v>

--- a/po_analysis_by_asin/B0CTNXBRJV_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTNXBRJV_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -709,7 +710,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -791,6 +792,565 @@
       </c>
       <c r="B11" t="n">
         <v>492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>83</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-57.8503500420362</v>
+      </c>
+      <c r="D2" t="n">
+        <v>229.8193728373158</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>87</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-76.73043335459052</v>
+      </c>
+      <c r="D3" t="n">
+        <v>238.1602943421486</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>92</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-55.98969859335689</v>
+      </c>
+      <c r="D4" t="n">
+        <v>241.477707413254</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>97</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-53.03501730813685</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.282918252319</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>102</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-52.82390326439315</v>
+      </c>
+      <c r="D6" t="n">
+        <v>255.8412007490252</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>106</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-50.52851590944476</v>
+      </c>
+      <c r="D7" t="n">
+        <v>251.9529800733644</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>111</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-34.84048933277323</v>
+      </c>
+      <c r="D8" t="n">
+        <v>271.1578146405756</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>116</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-36.46348492793628</v>
+      </c>
+      <c r="D9" t="n">
+        <v>266.5558589158263</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>121</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-22.57010152578441</v>
+      </c>
+      <c r="D10" t="n">
+        <v>278.308087956552</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>126</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-17.87219633684695</v>
+      </c>
+      <c r="D11" t="n">
+        <v>276.3483917915082</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>130</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-15.79441137727736</v>
+      </c>
+      <c r="D12" t="n">
+        <v>290.0162643395922</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>135</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-14.47703430235295</v>
+      </c>
+      <c r="D13" t="n">
+        <v>279.2973192723124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>145</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.802590525145463</v>
+      </c>
+      <c r="D14" t="n">
+        <v>301.0364788457757</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>149</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.929783554903956</v>
+      </c>
+      <c r="D15" t="n">
+        <v>308.0541494137693</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>154</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.90117821742051</v>
+      </c>
+      <c r="D16" t="n">
+        <v>296.5432706996621</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>159</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12.05465942428991</v>
+      </c>
+      <c r="D17" t="n">
+        <v>314.7479398482934</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>168</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15.6068752121735</v>
+      </c>
+      <c r="D18" t="n">
+        <v>311.9072864254423</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>173</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15.81722404546971</v>
+      </c>
+      <c r="D19" t="n">
+        <v>334.9684607765215</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>178</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23.94067736529591</v>
+      </c>
+      <c r="D20" t="n">
+        <v>329.5781816968621</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>187</v>
+      </c>
+      <c r="C21" t="n">
+        <v>35.74306072965542</v>
+      </c>
+      <c r="D21" t="n">
+        <v>336.819558042649</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>216</v>
+      </c>
+      <c r="C22" t="n">
+        <v>55.30936791308882</v>
+      </c>
+      <c r="D22" t="n">
+        <v>372.2464968449867</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>225</v>
+      </c>
+      <c r="C23" t="n">
+        <v>66.42102622274307</v>
+      </c>
+      <c r="D23" t="n">
+        <v>373.7035878391399</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>230</v>
+      </c>
+      <c r="C24" t="n">
+        <v>71.48441564006464</v>
+      </c>
+      <c r="D24" t="n">
+        <v>368.8644674392694</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>235</v>
+      </c>
+      <c r="C25" t="n">
+        <v>82.39041033170271</v>
+      </c>
+      <c r="D25" t="n">
+        <v>384.5193883100656</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>240</v>
+      </c>
+      <c r="C26" t="n">
+        <v>89.4315049632621</v>
+      </c>
+      <c r="D26" t="n">
+        <v>382.0744780932127</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>259</v>
+      </c>
+      <c r="C27" t="n">
+        <v>114.9587201826617</v>
+      </c>
+      <c r="D27" t="n">
+        <v>412.0842798306267</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>263</v>
+      </c>
+      <c r="C28" t="n">
+        <v>110.1306978658112</v>
+      </c>
+      <c r="D28" t="n">
+        <v>419.0063207556536</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>273</v>
+      </c>
+      <c r="C29" t="n">
+        <v>117.5199754934683</v>
+      </c>
+      <c r="D29" t="n">
+        <v>435.2741188017335</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>278</v>
+      </c>
+      <c r="C30" t="n">
+        <v>128.9268553349866</v>
+      </c>
+      <c r="D30" t="n">
+        <v>436.5780523963947</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>282</v>
+      </c>
+      <c r="C31" t="n">
+        <v>142.6771976846175</v>
+      </c>
+      <c r="D31" t="n">
+        <v>447.0092805206103</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>287</v>
+      </c>
+      <c r="C32" t="n">
+        <v>138.9093070874919</v>
+      </c>
+      <c r="D32" t="n">
+        <v>433.3624191419881</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>292</v>
+      </c>
+      <c r="C33" t="n">
+        <v>139.4397881255803</v>
+      </c>
+      <c r="D33" t="n">
+        <v>441.9839127992196</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>297</v>
+      </c>
+      <c r="C34" t="n">
+        <v>144.603066493347</v>
+      </c>
+      <c r="D34" t="n">
+        <v>451.5030164769115</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>301</v>
+      </c>
+      <c r="C35" t="n">
+        <v>149.9593847438544</v>
+      </c>
+      <c r="D35" t="n">
+        <v>445.4380889145255</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>306</v>
+      </c>
+      <c r="C36" t="n">
+        <v>165.293754904533</v>
+      </c>
+      <c r="D36" t="n">
+        <v>461.802037832822</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>311</v>
+      </c>
+      <c r="C37" t="n">
+        <v>157.1265760264202</v>
+      </c>
+      <c r="D37" t="n">
+        <v>461.5951076398223</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>316</v>
+      </c>
+      <c r="C38" t="n">
+        <v>167.2081416509683</v>
+      </c>
+      <c r="D38" t="n">
+        <v>475.4618270792108</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CTNXBRJV_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTNXBRJV_po_data.xlsx
@@ -805,7 +805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,16 +824,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -842,12 +832,6 @@
       <c r="B2" t="n">
         <v>83</v>
       </c>
-      <c r="C2" t="n">
-        <v>-57.8503500420362</v>
-      </c>
-      <c r="D2" t="n">
-        <v>229.8193728373158</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -856,12 +840,6 @@
       <c r="B3" t="n">
         <v>87</v>
       </c>
-      <c r="C3" t="n">
-        <v>-76.73043335459052</v>
-      </c>
-      <c r="D3" t="n">
-        <v>238.1602943421486</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -870,12 +848,6 @@
       <c r="B4" t="n">
         <v>92</v>
       </c>
-      <c r="C4" t="n">
-        <v>-55.98969859335689</v>
-      </c>
-      <c r="D4" t="n">
-        <v>241.477707413254</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -884,12 +856,6 @@
       <c r="B5" t="n">
         <v>97</v>
       </c>
-      <c r="C5" t="n">
-        <v>-53.03501730813685</v>
-      </c>
-      <c r="D5" t="n">
-        <v>242.282918252319</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -898,12 +864,6 @@
       <c r="B6" t="n">
         <v>102</v>
       </c>
-      <c r="C6" t="n">
-        <v>-52.82390326439315</v>
-      </c>
-      <c r="D6" t="n">
-        <v>255.8412007490252</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -912,12 +872,6 @@
       <c r="B7" t="n">
         <v>106</v>
       </c>
-      <c r="C7" t="n">
-        <v>-50.52851590944476</v>
-      </c>
-      <c r="D7" t="n">
-        <v>251.9529800733644</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -926,12 +880,6 @@
       <c r="B8" t="n">
         <v>111</v>
       </c>
-      <c r="C8" t="n">
-        <v>-34.84048933277323</v>
-      </c>
-      <c r="D8" t="n">
-        <v>271.1578146405756</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -940,12 +888,6 @@
       <c r="B9" t="n">
         <v>116</v>
       </c>
-      <c r="C9" t="n">
-        <v>-36.46348492793628</v>
-      </c>
-      <c r="D9" t="n">
-        <v>266.5558589158263</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -954,12 +896,6 @@
       <c r="B10" t="n">
         <v>121</v>
       </c>
-      <c r="C10" t="n">
-        <v>-22.57010152578441</v>
-      </c>
-      <c r="D10" t="n">
-        <v>278.308087956552</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -968,12 +904,6 @@
       <c r="B11" t="n">
         <v>126</v>
       </c>
-      <c r="C11" t="n">
-        <v>-17.87219633684695</v>
-      </c>
-      <c r="D11" t="n">
-        <v>276.3483917915082</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -982,12 +912,6 @@
       <c r="B12" t="n">
         <v>130</v>
       </c>
-      <c r="C12" t="n">
-        <v>-15.79441137727736</v>
-      </c>
-      <c r="D12" t="n">
-        <v>290.0162643395922</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -996,12 +920,6 @@
       <c r="B13" t="n">
         <v>135</v>
       </c>
-      <c r="C13" t="n">
-        <v>-14.47703430235295</v>
-      </c>
-      <c r="D13" t="n">
-        <v>279.2973192723124</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1010,12 +928,6 @@
       <c r="B14" t="n">
         <v>145</v>
       </c>
-      <c r="C14" t="n">
-        <v>-3.802590525145463</v>
-      </c>
-      <c r="D14" t="n">
-        <v>301.0364788457757</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1024,12 +936,6 @@
       <c r="B15" t="n">
         <v>149</v>
       </c>
-      <c r="C15" t="n">
-        <v>2.929783554903956</v>
-      </c>
-      <c r="D15" t="n">
-        <v>308.0541494137693</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1038,12 +944,6 @@
       <c r="B16" t="n">
         <v>154</v>
       </c>
-      <c r="C16" t="n">
-        <v>-3.90117821742051</v>
-      </c>
-      <c r="D16" t="n">
-        <v>296.5432706996621</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1052,12 +952,6 @@
       <c r="B17" t="n">
         <v>159</v>
       </c>
-      <c r="C17" t="n">
-        <v>12.05465942428991</v>
-      </c>
-      <c r="D17" t="n">
-        <v>314.7479398482934</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1066,12 +960,6 @@
       <c r="B18" t="n">
         <v>168</v>
       </c>
-      <c r="C18" t="n">
-        <v>15.6068752121735</v>
-      </c>
-      <c r="D18" t="n">
-        <v>311.9072864254423</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1080,12 +968,6 @@
       <c r="B19" t="n">
         <v>173</v>
       </c>
-      <c r="C19" t="n">
-        <v>15.81722404546971</v>
-      </c>
-      <c r="D19" t="n">
-        <v>334.9684607765215</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1094,12 +976,6 @@
       <c r="B20" t="n">
         <v>178</v>
       </c>
-      <c r="C20" t="n">
-        <v>23.94067736529591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>329.5781816968621</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1108,12 +984,6 @@
       <c r="B21" t="n">
         <v>187</v>
       </c>
-      <c r="C21" t="n">
-        <v>35.74306072965542</v>
-      </c>
-      <c r="D21" t="n">
-        <v>336.819558042649</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1122,12 +992,6 @@
       <c r="B22" t="n">
         <v>216</v>
       </c>
-      <c r="C22" t="n">
-        <v>55.30936791308882</v>
-      </c>
-      <c r="D22" t="n">
-        <v>372.2464968449867</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1136,12 +1000,6 @@
       <c r="B23" t="n">
         <v>225</v>
       </c>
-      <c r="C23" t="n">
-        <v>66.42102622274307</v>
-      </c>
-      <c r="D23" t="n">
-        <v>373.7035878391399</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1150,12 +1008,6 @@
       <c r="B24" t="n">
         <v>230</v>
       </c>
-      <c r="C24" t="n">
-        <v>71.48441564006464</v>
-      </c>
-      <c r="D24" t="n">
-        <v>368.8644674392694</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1164,12 +1016,6 @@
       <c r="B25" t="n">
         <v>235</v>
       </c>
-      <c r="C25" t="n">
-        <v>82.39041033170271</v>
-      </c>
-      <c r="D25" t="n">
-        <v>384.5193883100656</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1178,12 +1024,6 @@
       <c r="B26" t="n">
         <v>240</v>
       </c>
-      <c r="C26" t="n">
-        <v>89.4315049632621</v>
-      </c>
-      <c r="D26" t="n">
-        <v>382.0744780932127</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1192,12 +1032,6 @@
       <c r="B27" t="n">
         <v>259</v>
       </c>
-      <c r="C27" t="n">
-        <v>114.9587201826617</v>
-      </c>
-      <c r="D27" t="n">
-        <v>412.0842798306267</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1206,12 +1040,6 @@
       <c r="B28" t="n">
         <v>263</v>
       </c>
-      <c r="C28" t="n">
-        <v>110.1306978658112</v>
-      </c>
-      <c r="D28" t="n">
-        <v>419.0063207556536</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1220,12 +1048,6 @@
       <c r="B29" t="n">
         <v>273</v>
       </c>
-      <c r="C29" t="n">
-        <v>117.5199754934683</v>
-      </c>
-      <c r="D29" t="n">
-        <v>435.2741188017335</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1234,12 +1056,6 @@
       <c r="B30" t="n">
         <v>278</v>
       </c>
-      <c r="C30" t="n">
-        <v>128.9268553349866</v>
-      </c>
-      <c r="D30" t="n">
-        <v>436.5780523963947</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1248,12 +1064,6 @@
       <c r="B31" t="n">
         <v>282</v>
       </c>
-      <c r="C31" t="n">
-        <v>142.6771976846175</v>
-      </c>
-      <c r="D31" t="n">
-        <v>447.0092805206103</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1262,12 +1072,6 @@
       <c r="B32" t="n">
         <v>287</v>
       </c>
-      <c r="C32" t="n">
-        <v>138.9093070874919</v>
-      </c>
-      <c r="D32" t="n">
-        <v>433.3624191419881</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1276,12 +1080,6 @@
       <c r="B33" t="n">
         <v>292</v>
       </c>
-      <c r="C33" t="n">
-        <v>139.4397881255803</v>
-      </c>
-      <c r="D33" t="n">
-        <v>441.9839127992196</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1290,12 +1088,6 @@
       <c r="B34" t="n">
         <v>297</v>
       </c>
-      <c r="C34" t="n">
-        <v>144.603066493347</v>
-      </c>
-      <c r="D34" t="n">
-        <v>451.5030164769115</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1304,12 +1096,6 @@
       <c r="B35" t="n">
         <v>301</v>
       </c>
-      <c r="C35" t="n">
-        <v>149.9593847438544</v>
-      </c>
-      <c r="D35" t="n">
-        <v>445.4380889145255</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1318,12 +1104,6 @@
       <c r="B36" t="n">
         <v>306</v>
       </c>
-      <c r="C36" t="n">
-        <v>165.293754904533</v>
-      </c>
-      <c r="D36" t="n">
-        <v>461.802037832822</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1332,12 +1112,6 @@
       <c r="B37" t="n">
         <v>311</v>
       </c>
-      <c r="C37" t="n">
-        <v>157.1265760264202</v>
-      </c>
-      <c r="D37" t="n">
-        <v>461.5951076398223</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1345,12 +1119,6 @@
       </c>
       <c r="B38" t="n">
         <v>316</v>
-      </c>
-      <c r="C38" t="n">
-        <v>167.2081416509683</v>
-      </c>
-      <c r="D38" t="n">
-        <v>475.4618270792108</v>
       </c>
     </row>
   </sheetData>
